--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/DISTRICT_OF_COLUMBIA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/DISTRICT_OF_COLUMBIA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Atenango Del Rio</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Agustin Tlaxiaca</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Villaldama</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santa Maria Ipalapa</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Santiago Tapextla</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juarez</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Toliman</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Othon P. Blanco</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1739,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tampacan</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1783,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1814,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1876,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -1889,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -1902,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -1915,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1928,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -1941,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1972,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Amatlan De Los Reyes</t>
@@ -1985,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -1998,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2011,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2024,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Las Vigas De Ramirez</t>
@@ -2037,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -2050,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2063,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2076,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tihuatlan</t>
@@ -2089,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2102,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2115,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2128,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2172,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
